--- a/tenstocks/stocks/行业5日公司.xlsx
+++ b/tenstocks/stocks/行业5日公司.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="行业5日公司" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12103" uniqueCount="2860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12835" uniqueCount="2938">
   <si>
     <t>c_time</t>
   </si>
@@ -8594,6 +8594,240 @@
   </si>
   <si>
     <t>睿创微纳</t>
+  </si>
+  <si>
+    <t>国联股份</t>
+  </si>
+  <si>
+    <t>华阳国际</t>
+  </si>
+  <si>
+    <t>英飞拓</t>
+  </si>
+  <si>
+    <t>大胜达</t>
+  </si>
+  <si>
+    <t>景津环保</t>
+  </si>
+  <si>
+    <t>ST围海</t>
+  </si>
+  <si>
+    <t>兰州民百</t>
+  </si>
+  <si>
+    <t>柯力传感</t>
+  </si>
+  <si>
+    <t>长川科技</t>
+  </si>
+  <si>
+    <t>丽珠集团</t>
+  </si>
+  <si>
+    <t>神马电力</t>
+  </si>
+  <si>
+    <t>海星股份</t>
+  </si>
+  <si>
+    <t>XD当代明</t>
+  </si>
+  <si>
+    <t>万方发展</t>
+  </si>
+  <si>
+    <t>威海广泰</t>
+  </si>
+  <si>
+    <t>中国广核</t>
+  </si>
+  <si>
+    <t>小熊电器</t>
+  </si>
+  <si>
+    <t>航天晨光</t>
+  </si>
+  <si>
+    <t>日辰股份</t>
+  </si>
+  <si>
+    <t>精测电子</t>
+  </si>
+  <si>
+    <t>郑煤机</t>
+  </si>
+  <si>
+    <t>兆日科技</t>
+  </si>
+  <si>
+    <t>雏鹰退</t>
+  </si>
+  <si>
+    <t>重庆百货</t>
+  </si>
+  <si>
+    <t>南华期货</t>
+  </si>
+  <si>
+    <t>珠江啤酒</t>
+  </si>
+  <si>
+    <t>中青宝</t>
+  </si>
+  <si>
+    <t>金石资源</t>
+  </si>
+  <si>
+    <t>力帆股份</t>
+  </si>
+  <si>
+    <t>*ST庞大</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>杭钢股份</t>
+  </si>
+  <si>
+    <t>铂力特</t>
+  </si>
+  <si>
+    <t>五方光电</t>
+  </si>
+  <si>
+    <t>丹化科技</t>
+  </si>
+  <si>
+    <t>科达股份</t>
+  </si>
+  <si>
+    <t>中科软</t>
+  </si>
+  <si>
+    <t>海越能源</t>
+  </si>
+  <si>
+    <t>瑞达期货</t>
+  </si>
+  <si>
+    <t>*ST柳化</t>
+  </si>
+  <si>
+    <t>帝尔激光</t>
+  </si>
+  <si>
+    <t>红相股份</t>
+  </si>
+  <si>
+    <t>中信特钢</t>
+  </si>
+  <si>
+    <t>N海尔</t>
+  </si>
+  <si>
+    <t>大丰实业</t>
+  </si>
+  <si>
+    <t>佳禾智能</t>
+  </si>
+  <si>
+    <t>漫步者</t>
+  </si>
+  <si>
+    <t>交建股份</t>
+  </si>
+  <si>
+    <t>步 步 高</t>
+  </si>
+  <si>
+    <t>渝农商行</t>
+  </si>
+  <si>
+    <t>麒盛科技</t>
+  </si>
+  <si>
+    <t>祥鑫科技</t>
+  </si>
+  <si>
+    <t>飞力达</t>
+  </si>
+  <si>
+    <t>五 粮 液</t>
+  </si>
+  <si>
+    <t>TCL 集团</t>
+  </si>
+  <si>
+    <t>安恒信息</t>
+  </si>
+  <si>
+    <t>长阳科技</t>
+  </si>
+  <si>
+    <t>安德利</t>
+  </si>
+  <si>
+    <t>东方盛虹</t>
+  </si>
+  <si>
+    <t>力合科技</t>
+  </si>
+  <si>
+    <t>启迪环境</t>
+  </si>
+  <si>
+    <t>普门科技</t>
+  </si>
+  <si>
+    <t>飞亚达Ｂ</t>
+  </si>
+  <si>
+    <t>八方股份</t>
+  </si>
+  <si>
+    <t>京东方Ａ</t>
+  </si>
+  <si>
+    <t>齐翔腾达</t>
+  </si>
+  <si>
+    <t>左江科技</t>
+  </si>
+  <si>
+    <t>卧龙电驱</t>
+  </si>
+  <si>
+    <t>筑博设计</t>
+  </si>
+  <si>
+    <t>东阳光</t>
+  </si>
+  <si>
+    <t>N联瑞</t>
+  </si>
+  <si>
+    <t>鼎龙文化</t>
+  </si>
+  <si>
+    <t>广电计量</t>
+  </si>
+  <si>
+    <t>兔 宝 宝</t>
+  </si>
+  <si>
+    <t>恒基达鑫</t>
+  </si>
+  <si>
+    <t>安道麦A</t>
+  </si>
+  <si>
+    <t>海控Ｂ股</t>
+  </si>
+  <si>
+    <t>飞亚达Ａ</t>
   </si>
 </sst>
 </file>
@@ -9536,15 +9770,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ215"/>
+  <dimension ref="A1:BJ227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -46926,6 +47160,2262 @@
       </c>
       <c r="BJ215" t="s">
         <v>2859</v>
+      </c>
+    </row>
+    <row r="216" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C216" t="s">
+        <v>573</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F216" t="s">
+        <v>803</v>
+      </c>
+      <c r="G216" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H216" t="s">
+        <v>2351</v>
+      </c>
+      <c r="I216" t="s">
+        <v>615</v>
+      </c>
+      <c r="J216" t="s">
+        <v>2861</v>
+      </c>
+      <c r="K216" t="s">
+        <v>424</v>
+      </c>
+      <c r="L216" t="s">
+        <v>382</v>
+      </c>
+      <c r="M216" t="s">
+        <v>811</v>
+      </c>
+      <c r="N216" t="s">
+        <v>837</v>
+      </c>
+      <c r="O216" t="s">
+        <v>519</v>
+      </c>
+      <c r="P216" t="s">
+        <v>2733</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>2475</v>
+      </c>
+      <c r="R216" t="s">
+        <v>198</v>
+      </c>
+      <c r="S216" t="s">
+        <v>2296</v>
+      </c>
+      <c r="T216" t="s">
+        <v>1764</v>
+      </c>
+      <c r="U216" t="s">
+        <v>2747</v>
+      </c>
+      <c r="V216" t="s">
+        <v>1880</v>
+      </c>
+      <c r="W216" t="s">
+        <v>157</v>
+      </c>
+      <c r="X216" t="s">
+        <v>2772</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>1886</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>2781</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>767</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>790</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>740</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>2862</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>2863</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>508</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>795</v>
+      </c>
+      <c r="AY216" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AZ216" t="s">
+        <v>2215</v>
+      </c>
+      <c r="BA216" t="s">
+        <v>441</v>
+      </c>
+      <c r="BB216" t="s">
+        <v>2470</v>
+      </c>
+      <c r="BC216" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD216" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BE216" t="s">
+        <v>675</v>
+      </c>
+      <c r="BF216" t="s">
+        <v>2724</v>
+      </c>
+      <c r="BG216" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH216" t="s">
+        <v>2243</v>
+      </c>
+      <c r="BI216" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ216" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="217" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C217" t="s">
+        <v>573</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E217" t="s">
+        <v>189</v>
+      </c>
+      <c r="F217" t="s">
+        <v>803</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H217" t="s">
+        <v>349</v>
+      </c>
+      <c r="I217" t="s">
+        <v>191</v>
+      </c>
+      <c r="J217" t="s">
+        <v>2865</v>
+      </c>
+      <c r="K217" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L217" t="s">
+        <v>2362</v>
+      </c>
+      <c r="M217" t="s">
+        <v>176</v>
+      </c>
+      <c r="N217" t="s">
+        <v>1050</v>
+      </c>
+      <c r="O217" t="s">
+        <v>75</v>
+      </c>
+      <c r="P217" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>2370</v>
+      </c>
+      <c r="R217" t="s">
+        <v>2866</v>
+      </c>
+      <c r="S217" t="s">
+        <v>174</v>
+      </c>
+      <c r="T217" t="s">
+        <v>2796</v>
+      </c>
+      <c r="U217" t="s">
+        <v>476</v>
+      </c>
+      <c r="V217" t="s">
+        <v>2115</v>
+      </c>
+      <c r="W217" t="s">
+        <v>2145</v>
+      </c>
+      <c r="X217" t="s">
+        <v>2284</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>940</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>2842</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>981</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AP217" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR217" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS217" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT217" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>2760</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>508</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>446</v>
+      </c>
+      <c r="AY217" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AZ217" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BA217" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB217" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC217" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD217" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE217" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BF217" t="s">
+        <v>2724</v>
+      </c>
+      <c r="BG217" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH217" t="s">
+        <v>1839</v>
+      </c>
+      <c r="BI217" t="s">
+        <v>2846</v>
+      </c>
+      <c r="BJ217" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="218" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43700</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C218" t="s">
+        <v>573</v>
+      </c>
+      <c r="D218" t="s">
+        <v>141</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F218" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G218" t="s">
+        <v>849</v>
+      </c>
+      <c r="H218" t="s">
+        <v>2870</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J218" t="s">
+        <v>2790</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L218" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M218" t="s">
+        <v>811</v>
+      </c>
+      <c r="N218" t="s">
+        <v>684</v>
+      </c>
+      <c r="O218" t="s">
+        <v>75</v>
+      </c>
+      <c r="P218" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>2872</v>
+      </c>
+      <c r="R218" t="s">
+        <v>2222</v>
+      </c>
+      <c r="S218" t="s">
+        <v>2555</v>
+      </c>
+      <c r="T218" t="s">
+        <v>2078</v>
+      </c>
+      <c r="U218" t="s">
+        <v>2079</v>
+      </c>
+      <c r="V218" t="s">
+        <v>666</v>
+      </c>
+      <c r="W218" t="s">
+        <v>2394</v>
+      </c>
+      <c r="X218" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>2522</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>788</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>2407</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>2736</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>547</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>2873</v>
+      </c>
+      <c r="AP218" t="s">
+        <v>531</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR218" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS218" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT218" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW218" t="s">
+        <v>508</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AY218" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AZ218" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BA218" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB218" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC218" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD218" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE218" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BF218" t="s">
+        <v>244</v>
+      </c>
+      <c r="BG218" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH218" t="s">
+        <v>1839</v>
+      </c>
+      <c r="BI218" t="s">
+        <v>381</v>
+      </c>
+      <c r="BJ218" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="219" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E219" t="s">
+        <v>2460</v>
+      </c>
+      <c r="F219" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G219" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H219" t="s">
+        <v>222</v>
+      </c>
+      <c r="I219" t="s">
+        <v>449</v>
+      </c>
+      <c r="J219" t="s">
+        <v>2689</v>
+      </c>
+      <c r="K219" t="s">
+        <v>2695</v>
+      </c>
+      <c r="L219" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M219" t="s">
+        <v>811</v>
+      </c>
+      <c r="N219" t="s">
+        <v>2875</v>
+      </c>
+      <c r="O219" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P219" t="s">
+        <v>2839</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>2727</v>
+      </c>
+      <c r="R219" t="s">
+        <v>198</v>
+      </c>
+      <c r="S219" t="s">
+        <v>174</v>
+      </c>
+      <c r="T219" t="s">
+        <v>2796</v>
+      </c>
+      <c r="U219" t="s">
+        <v>2585</v>
+      </c>
+      <c r="V219" t="s">
+        <v>666</v>
+      </c>
+      <c r="W219" t="s">
+        <v>1581</v>
+      </c>
+      <c r="X219" t="s">
+        <v>2798</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>800</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>2820</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AP219" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>2876</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT219" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AW219" t="s">
+        <v>508</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>795</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>2807</v>
+      </c>
+      <c r="AZ219" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BA219" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BB219" t="s">
+        <v>991</v>
+      </c>
+      <c r="BC219" t="s">
+        <v>564</v>
+      </c>
+      <c r="BD219" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE219" t="s">
+        <v>2059</v>
+      </c>
+      <c r="BF219" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG219" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BH219" t="s">
+        <v>1839</v>
+      </c>
+      <c r="BI219" t="s">
+        <v>1376</v>
+      </c>
+      <c r="BJ219" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="220" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C220" t="s">
+        <v>573</v>
+      </c>
+      <c r="D220" t="s">
+        <v>172</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F220" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H220" t="s">
+        <v>349</v>
+      </c>
+      <c r="I220" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J220" t="s">
+        <v>249</v>
+      </c>
+      <c r="K220" t="s">
+        <v>953</v>
+      </c>
+      <c r="L220" t="s">
+        <v>541</v>
+      </c>
+      <c r="M220" t="s">
+        <v>176</v>
+      </c>
+      <c r="N220" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O220" t="s">
+        <v>75</v>
+      </c>
+      <c r="P220" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>1545</v>
+      </c>
+      <c r="R220" t="s">
+        <v>2794</v>
+      </c>
+      <c r="S220" t="s">
+        <v>1301</v>
+      </c>
+      <c r="T220" t="s">
+        <v>784</v>
+      </c>
+      <c r="U220" t="s">
+        <v>476</v>
+      </c>
+      <c r="V220" t="s">
+        <v>666</v>
+      </c>
+      <c r="W220" t="s">
+        <v>478</v>
+      </c>
+      <c r="X220" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>788</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>2468</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AP220" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR220" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS220" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT220" t="s">
+        <v>770</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>2326</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW220" t="s">
+        <v>508</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>446</v>
+      </c>
+      <c r="AY220" t="s">
+        <v>559</v>
+      </c>
+      <c r="AZ220" t="s">
+        <v>2706</v>
+      </c>
+      <c r="BA220" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BB220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC220" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD220" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BE220" t="s">
+        <v>2844</v>
+      </c>
+      <c r="BF220" t="s">
+        <v>2724</v>
+      </c>
+      <c r="BG220" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH220" t="s">
+        <v>1839</v>
+      </c>
+      <c r="BI220" t="s">
+        <v>2803</v>
+      </c>
+      <c r="BJ220" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="221" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D221" t="s">
+        <v>212</v>
+      </c>
+      <c r="E221" t="s">
+        <v>498</v>
+      </c>
+      <c r="F221" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G221" t="s">
+        <v>2881</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I221" t="s">
+        <v>2882</v>
+      </c>
+      <c r="J221" t="s">
+        <v>810</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L221" t="s">
+        <v>2381</v>
+      </c>
+      <c r="M221" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N221" t="s">
+        <v>295</v>
+      </c>
+      <c r="O221" t="s">
+        <v>150</v>
+      </c>
+      <c r="P221" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>2370</v>
+      </c>
+      <c r="R221" t="s">
+        <v>2883</v>
+      </c>
+      <c r="S221" t="s">
+        <v>2392</v>
+      </c>
+      <c r="T221" t="s">
+        <v>784</v>
+      </c>
+      <c r="U221" t="s">
+        <v>1990</v>
+      </c>
+      <c r="V221" t="s">
+        <v>429</v>
+      </c>
+      <c r="W221" t="s">
+        <v>2145</v>
+      </c>
+      <c r="X221" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>940</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>960</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>480</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>710</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>2884</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>944</v>
+      </c>
+      <c r="AP221" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AR221" t="s">
+        <v>2320</v>
+      </c>
+      <c r="AS221" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT221" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW221" t="s">
+        <v>655</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AZ221" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BA221" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BB221" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC221" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD221" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE221" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BF221" t="s">
+        <v>244</v>
+      </c>
+      <c r="BG221" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH221" t="s">
+        <v>1724</v>
+      </c>
+      <c r="BI221" t="s">
+        <v>2846</v>
+      </c>
+      <c r="BJ221" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="222" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C222" t="s">
+        <v>573</v>
+      </c>
+      <c r="D222" t="s">
+        <v>287</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F222" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G222" t="s">
+        <v>2886</v>
+      </c>
+      <c r="H222" t="s">
+        <v>349</v>
+      </c>
+      <c r="I222" t="s">
+        <v>750</v>
+      </c>
+      <c r="J222" t="s">
+        <v>2670</v>
+      </c>
+      <c r="K222" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L222" t="s">
+        <v>2887</v>
+      </c>
+      <c r="M222" t="s">
+        <v>2888</v>
+      </c>
+      <c r="N222" t="s">
+        <v>2642</v>
+      </c>
+      <c r="O222" t="s">
+        <v>407</v>
+      </c>
+      <c r="P222" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>1619</v>
+      </c>
+      <c r="R222" t="s">
+        <v>2889</v>
+      </c>
+      <c r="S222" t="s">
+        <v>1580</v>
+      </c>
+      <c r="T222" t="s">
+        <v>2830</v>
+      </c>
+      <c r="U222" t="s">
+        <v>1990</v>
+      </c>
+      <c r="V222" t="s">
+        <v>2890</v>
+      </c>
+      <c r="W222" t="s">
+        <v>157</v>
+      </c>
+      <c r="X222" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>960</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>708</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>416</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>2884</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>547</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AP222" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AR222" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT222" t="s">
+        <v>2718</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AV222" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AW222" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>2699</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>2807</v>
+      </c>
+      <c r="AZ222" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BA222" t="s">
+        <v>441</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>535</v>
+      </c>
+      <c r="BC222" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD222" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BE222" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF222" t="s">
+        <v>793</v>
+      </c>
+      <c r="BG222" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BH222" t="s">
+        <v>1724</v>
+      </c>
+      <c r="BI222" t="s">
+        <v>2846</v>
+      </c>
+      <c r="BJ222" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="223" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2893</v>
+      </c>
+      <c r="E223" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F223" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G223" t="s">
+        <v>2526</v>
+      </c>
+      <c r="H223" t="s">
+        <v>422</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J223" t="s">
+        <v>2837</v>
+      </c>
+      <c r="K223" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L223" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M223" t="s">
+        <v>2181</v>
+      </c>
+      <c r="N223" t="s">
+        <v>914</v>
+      </c>
+      <c r="O223" t="s">
+        <v>1869</v>
+      </c>
+      <c r="P223" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>2895</v>
+      </c>
+      <c r="R223" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S223" t="s">
+        <v>2896</v>
+      </c>
+      <c r="T223" t="s">
+        <v>2771</v>
+      </c>
+      <c r="U223" t="s">
+        <v>1990</v>
+      </c>
+      <c r="V223" t="s">
+        <v>2405</v>
+      </c>
+      <c r="W223" t="s">
+        <v>200</v>
+      </c>
+      <c r="X223" t="s">
+        <v>939</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>2897</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>2522</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>2800</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>2898</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>824</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>2899</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>608</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>535</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>564</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE223" t="s">
+        <v>2844</v>
+      </c>
+      <c r="BF223" t="s">
+        <v>773</v>
+      </c>
+      <c r="BG223" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BH223" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BI223" t="s">
+        <v>2846</v>
+      </c>
+      <c r="BJ223" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="224" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C224" t="s">
+        <v>573</v>
+      </c>
+      <c r="D224" t="s">
+        <v>287</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F224" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G224" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H224" t="s">
+        <v>2901</v>
+      </c>
+      <c r="I224" t="s">
+        <v>809</v>
+      </c>
+      <c r="J224" t="s">
+        <v>112</v>
+      </c>
+      <c r="K224" t="s">
+        <v>1895</v>
+      </c>
+      <c r="L224" t="s">
+        <v>2038</v>
+      </c>
+      <c r="M224" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N224" t="s">
+        <v>598</v>
+      </c>
+      <c r="O224" t="s">
+        <v>867</v>
+      </c>
+      <c r="P224" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>2158</v>
+      </c>
+      <c r="R224" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S224" t="s">
+        <v>174</v>
+      </c>
+      <c r="T224" t="s">
+        <v>727</v>
+      </c>
+      <c r="U224" t="s">
+        <v>901</v>
+      </c>
+      <c r="V224" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W224" t="s">
+        <v>118</v>
+      </c>
+      <c r="X224" t="s">
+        <v>2022</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>960</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>984</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>567</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>944</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>2835</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>610</v>
+      </c>
+      <c r="AZ224" t="s">
+        <v>2903</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>608</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BE224" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF224" t="s">
+        <v>2408</v>
+      </c>
+      <c r="BG224" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH224" t="s">
+        <v>1724</v>
+      </c>
+      <c r="BI224" t="s">
+        <v>2846</v>
+      </c>
+      <c r="BJ224" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="225" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C225" t="s">
+        <v>511</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2905</v>
+      </c>
+      <c r="E225" t="s">
+        <v>2460</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G225" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H225" t="s">
+        <v>222</v>
+      </c>
+      <c r="I225" t="s">
+        <v>721</v>
+      </c>
+      <c r="J225" t="s">
+        <v>2907</v>
+      </c>
+      <c r="K225" t="s">
+        <v>953</v>
+      </c>
+      <c r="L225" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M225" t="s">
+        <v>252</v>
+      </c>
+      <c r="N225" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O225" t="s">
+        <v>838</v>
+      </c>
+      <c r="P225" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>1726</v>
+      </c>
+      <c r="R225" t="s">
+        <v>2908</v>
+      </c>
+      <c r="S225" t="s">
+        <v>1979</v>
+      </c>
+      <c r="T225" t="s">
+        <v>1654</v>
+      </c>
+      <c r="U225" t="s">
+        <v>901</v>
+      </c>
+      <c r="V225" t="s">
+        <v>666</v>
+      </c>
+      <c r="W225" t="s">
+        <v>2909</v>
+      </c>
+      <c r="X225" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>623</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>2910</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>805</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>584</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>2911</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>2912</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>438</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>2862</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>761</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>858</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>559</v>
+      </c>
+      <c r="AZ225" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BA225" t="s">
+        <v>608</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE225" t="s">
+        <v>371</v>
+      </c>
+      <c r="BF225" t="s">
+        <v>793</v>
+      </c>
+      <c r="BG225" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BH225" t="s">
+        <v>1211</v>
+      </c>
+      <c r="BI225" t="s">
+        <v>661</v>
+      </c>
+      <c r="BJ225" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="226" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F226" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G226" t="s">
+        <v>2915</v>
+      </c>
+      <c r="H226" t="s">
+        <v>378</v>
+      </c>
+      <c r="I226" t="s">
+        <v>538</v>
+      </c>
+      <c r="J226" t="s">
+        <v>997</v>
+      </c>
+      <c r="K226" t="s">
+        <v>953</v>
+      </c>
+      <c r="L226" t="s">
+        <v>2916</v>
+      </c>
+      <c r="M226" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N226" t="s">
+        <v>384</v>
+      </c>
+      <c r="O226" t="s">
+        <v>838</v>
+      </c>
+      <c r="P226" t="s">
+        <v>2672</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R226" t="s">
+        <v>2917</v>
+      </c>
+      <c r="S226" t="s">
+        <v>2746</v>
+      </c>
+      <c r="T226" t="s">
+        <v>2771</v>
+      </c>
+      <c r="U226" t="s">
+        <v>901</v>
+      </c>
+      <c r="V226" t="s">
+        <v>2333</v>
+      </c>
+      <c r="W226" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X226" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>584</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>2919</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>2820</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>2898</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>2920</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>739</v>
+      </c>
+      <c r="AP226" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>2446</v>
+      </c>
+      <c r="AR226" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT226" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>632</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AW226" t="s">
+        <v>2785</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>795</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AZ226" t="s">
+        <v>2921</v>
+      </c>
+      <c r="BA226" t="s">
+        <v>441</v>
+      </c>
+      <c r="BB226" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC226" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD226" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE226" t="s">
+        <v>2922</v>
+      </c>
+      <c r="BF226" t="s">
+        <v>341</v>
+      </c>
+      <c r="BG226" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BH226" t="s">
+        <v>1211</v>
+      </c>
+      <c r="BI226" t="s">
+        <v>661</v>
+      </c>
+      <c r="BJ226" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="227" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E227" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F227" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G227" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H227" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I227" t="s">
+        <v>615</v>
+      </c>
+      <c r="J227" t="s">
+        <v>2928</v>
+      </c>
+      <c r="K227" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L227" t="s">
+        <v>2930</v>
+      </c>
+      <c r="M227" t="s">
+        <v>2792</v>
+      </c>
+      <c r="N227" t="s">
+        <v>1050</v>
+      </c>
+      <c r="O227" t="s">
+        <v>812</v>
+      </c>
+      <c r="P227" t="s">
+        <v>2294</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>2931</v>
+      </c>
+      <c r="R227" t="s">
+        <v>427</v>
+      </c>
+      <c r="S227" t="s">
+        <v>1731</v>
+      </c>
+      <c r="T227" t="s">
+        <v>1764</v>
+      </c>
+      <c r="U227" t="s">
+        <v>1655</v>
+      </c>
+      <c r="V227" t="s">
+        <v>2333</v>
+      </c>
+      <c r="W227" t="s">
+        <v>359</v>
+      </c>
+      <c r="X227" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>843</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>960</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>2932</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>693</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP227" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AR227" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AS227" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AT227" t="s">
+        <v>770</v>
+      </c>
+      <c r="AU227" t="s">
+        <v>2935</v>
+      </c>
+      <c r="AV227" t="s">
+        <v>2514</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>858</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>2899</v>
+      </c>
+      <c r="AY227" t="s">
+        <v>2774</v>
+      </c>
+      <c r="AZ227" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BA227" t="s">
+        <v>929</v>
+      </c>
+      <c r="BB227" t="s">
+        <v>2936</v>
+      </c>
+      <c r="BC227" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD227" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE227" t="s">
+        <v>2937</v>
+      </c>
+      <c r="BF227" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG227" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BH227" t="s">
+        <v>1805</v>
+      </c>
+      <c r="BI227" t="s">
+        <v>2014</v>
+      </c>
+      <c r="BJ227" t="s">
+        <v>2904</v>
       </c>
     </row>
   </sheetData>
